--- a/data/hotels_by_city/Houston/Houston_shard_109.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_109.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55609-d12944276-Reviews-Comfort_Suites-Channelview_Texas.html</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites.h20039749.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530300826039&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=50833e81-8592-41a9-b7ae-ed7ee4ac3b03&amp;mctc=9&amp;exp_dp=71.4&amp;exp_ts=1530300832401&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,75 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r577975854-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>12944276</t>
+  </si>
+  <si>
+    <t>577975854</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>My experience with this property was great. From check in to check out this site is worth the stay. I found the room to be clean and felt comfortable. It was easy to find just off the highway.The price was just right.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r567371609-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>567371609</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>A number 1</t>
+  </si>
+  <si>
+    <t>This is a new property, super clean, great rooms. The staff was awesome, check in was quick and easy. It was so quiet and comfortable my wife and I almost overslept. There are also numerous places to eat with a 10 minute drive.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r549981689-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>549981689</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Great Staff Here! Awesome Value!</t>
+  </si>
+  <si>
+    <t>This hotel is very new and is super clean. The room was great! Spacious clean &amp; modern. it felt more like a room valued at $200.  I was very impressed with the team at this hotel. They were great communicators and seemed genuinely interested in your satisfaction. I will absolutely stay here again when in the Houston area. Overall it's one the best hotels I have ever stayed in.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +607,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +639,260 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_109.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_109.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r611468126-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>12944276</t>
+  </si>
+  <si>
+    <t>611468126</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>PLEASE! Clean the pool!!!</t>
+  </si>
+  <si>
+    <t>Fairly new hotel with very nice staff. Rooms are cool, beds are comfy, but the pool...I have stayed several times at this hotel, and 2 of the last 3 times, the pool has been a disgusting shade of green. The hand rail is broken and just tossed to the side, and the area around the pool is covered with cigarette butts. ( no trash can or ashtray in fenced pool area)</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r605064767-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>605064767</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>We won't be back</t>
+  </si>
+  <si>
+    <t>This property has a very nice lobby and breakfast area.  The building looks relatively new. The check in desk clerks were friendly and competent.  Our 4th floor room was large, clean and had very comfortable beds.  Wifi worked well for checking news and e-mail.The tub drained very slow and I had water above my ankles by the time I finished showering.  There was no hot water in the sink.In spite of the comfortable beds, my husband and I had a restless night because when the air conditioner was running the room became very cold and then was very hot within two minutes after the compressor shut off.  Although the hotel is a block from the highway, we could hear traffic all night.  At 4:00 A.M. there were loud noises outside that I think was garbage being collected at the nearby fast food restaurants. Breakfast was very poor. There were 6 rubbery egg looking things and 6 sausage links in the "hot" container that looked like they had been there for several days.  We had instant oatmeal and yogurt.As we were leaving, I wanted to report the problems with the drain and hot water in the room, but I could not locate anyone at the front desk.  We will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property has a very nice lobby and breakfast area.  The building looks relatively new. The check in desk clerks were friendly and competent.  Our 4th floor room was large, clean and had very comfortable beds.  Wifi worked well for checking news and e-mail.The tub drained very slow and I had water above my ankles by the time I finished showering.  There was no hot water in the sink.In spite of the comfortable beds, my husband and I had a restless night because when the air conditioner was running the room became very cold and then was very hot within two minutes after the compressor shut off.  Although the hotel is a block from the highway, we could hear traffic all night.  At 4:00 A.M. there were loud noises outside that I think was garbage being collected at the nearby fast food restaurants. Breakfast was very poor. There were 6 rubbery egg looking things and 6 sausage links in the "hot" container that looked like they had been there for several days.  We had instant oatmeal and yogurt.As we were leaving, I wanted to report the problems with the drain and hot water in the room, but I could not locate anyone at the front desk.  We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r591687623-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>591687623</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great comfortable stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location, just off I 10, next to many quick eats place. Yes, it’s next to a trailer park but I didn’t find that to be a problem. Excellent value. Clean, brand new hotel. Friendly staff.We stayed here for 1 night after visiting Houston and on our way to NOLA. I figure why stay in Houston where this kind of hotel will be at least $30-40 more. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r583122320-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>583122320</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Getaway</t>
+  </si>
+  <si>
+    <t>The hotel is duck off by itself in somewhat bad part of Channelview. The hotel is new we were greeted with a smile till it was time to check in. We had book two rooms not knowing that it was a $200 damage charge.. First we were told it was $100 then girl call manager (no problem with anyone nationality but please speak English when conducting business) manager say $200 for each room that's $400 they wanted us to spend. WOW. SO we paid it was already 6:30 p.m. Sunday morning at check out the clerk went up to our to check it before we left.. just to much will never stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The hotel is duck off by itself in somewhat bad part of Channelview. The hotel is new we were greeted with a smile till it was time to check in. We had book two rooms not knowing that it was a $200 damage charge.. First we were told it was $100 then girl call manager (no problem with anyone nationality but please speak English when conducting business) manager say $200 for each room that's $400 they wanted us to spend. WOW. SO we paid it was already 6:30 p.m. Sunday morning at check out the clerk went up to our to check it before we left.. just to much will never stay here againMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r577975854-Comfort_Suites-Channelview_Texas.html</t>
   </si>
   <si>
-    <t>55609</t>
-  </si>
-  <si>
-    <t>12944276</t>
-  </si>
-  <si>
     <t>577975854</t>
   </si>
   <si>
@@ -171,9 +252,6 @@
     <t>My experience with this property was great. From check in to check out this site is worth the stay. I found the room to be clean and felt comfortable. It was easy to find just off the highway.The price was just right.</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -195,9 +273,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r549981689-Comfort_Suites-Channelview_Texas.html</t>
   </si>
   <si>
@@ -214,6 +289,42 @@
   </si>
   <si>
     <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r547418941-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>547418941</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I checked in early with Leah. She was great. Glad I had the pleasure to be checked in with her. This hotel is great and surrounded by a lot of eating places. Thank you for a great stay. Can't wait to visit Texas again. I will be sure to stay at the location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d12944276-r542083463-Comfort_Suites-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>542083463</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel property</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of the price, but it was really outstanding in every way.  It's a new property, and everything looks clean and fresh and very modern.  The staff at check-in and check-out were so warm and friendly, and the room was very lovely and well appointed.  The breakfast was great- eggs and sausage and all the other cereal and toasts, but it was really fun to find a "Texas" shaped waffle maker with some blueberry waffle batter- and delicious, too!  I wish we could have stayed longer, but we definitely want to stay here again the next time we come through the Houston area.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
   </si>
 </sst>
 </file>
@@ -748,7 +859,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -758,16 +869,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -811,27 +916,33 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -856,43 +967,391 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66692</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
